--- a/umfrage/diagrams/mixed/daten.xlsx
+++ b/umfrage/diagrams/mixed/daten.xlsx
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M23"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,67 +422,67 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>CASE</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>A102</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>A103</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>A106</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>A201</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>A202</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>A203</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>A204</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>A205</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>A208</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>A301</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>A302_01</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>A303_01</t>
         </is>
@@ -1376,6 +1364,47 @@
       </c>
       <c r="M23" t="inlineStr"/>
     </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>116</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" t="n">
+        <v>4</v>
+      </c>
+      <c r="D24" t="n">
+        <v>5</v>
+      </c>
+      <c r="E24" t="n">
+        <v>5</v>
+      </c>
+      <c r="F24" t="n">
+        <v>5</v>
+      </c>
+      <c r="G24" t="n">
+        <v>5</v>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+      <c r="I24" t="n">
+        <v>5</v>
+      </c>
+      <c r="J24" t="n">
+        <v>8</v>
+      </c>
+      <c r="K24" t="n">
+        <v>5</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Schöne Gestaltung{EM_THUMBS_UP}. </t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
